--- a/Lines_data.xlsx
+++ b/Lines_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745BA739-31EE-4DDC-AC05-FF7E4A10804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F23D5-8E0A-47CB-A0CE-7E854EDFA520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>From</t>
   </si>
@@ -48,16 +48,127 @@
   </si>
   <si>
     <t>Capacity (MVA)</t>
+  </si>
+  <si>
+    <t>Line id</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>L12</t>
+  </si>
+  <si>
+    <t>L13</t>
+  </si>
+  <si>
+    <t>L14</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>L16</t>
+  </si>
+  <si>
+    <t>L17</t>
+  </si>
+  <si>
+    <t>L18</t>
+  </si>
+  <si>
+    <t>L19</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>L21</t>
+  </si>
+  <si>
+    <t>L22</t>
+  </si>
+  <si>
+    <t>L23</t>
+  </si>
+  <si>
+    <t>L24</t>
+  </si>
+  <si>
+    <t>L25</t>
+  </si>
+  <si>
+    <t>L26</t>
+  </si>
+  <si>
+    <t>L27</t>
+  </si>
+  <si>
+    <t>L28</t>
+  </si>
+  <si>
+    <t>L29</t>
+  </si>
+  <si>
+    <t>L30</t>
+  </si>
+  <si>
+    <t>L31</t>
+  </si>
+  <si>
+    <t>L32</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>L34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -419,526 +530,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.46E-2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.2253</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.1356</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.20499999999999999</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.12709999999999999</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>24</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.111</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>9.4E-2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.1762</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.1762</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
         <v>11</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>13</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
         <v>11</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>14</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
         <v>12</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>13</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
         <v>12</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>23</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
         <v>13</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
         <v>14</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>16</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
         <v>15</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>16</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.72E-2</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
         <v>15</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>21</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
         <v>15</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>24</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
         <v>16</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>17</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2.63E-2</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
         <v>16</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>19</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
         <v>17</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>18</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.43E-2</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
         <v>17</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>22</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.1069</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
         <v>18</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>21</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.32E-2</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
         <v>19</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>20</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
         <v>20</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>23</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.12E-2</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
         <v>21</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>22</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>500</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,15 +1300,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E3775B-1FA2-47C8-9DD7-1455AFF9DA69}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702244EF-09E4-4287-A309-D47118C6EA68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1118,17 +1343,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702244EF-09E4-4287-A309-D47118C6EA68}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E3775B-1FA2-47C8-9DD7-1455AFF9DA69}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Lines_data.xlsx
+++ b/Lines_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F23D5-8E0A-47CB-A0CE-7E854EDFA520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E366AE-B2A1-4BD6-8D31-C1C85ECB7A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,6 @@
     <t>To</t>
   </si>
   <si>
-    <t>X (pu)</t>
-  </si>
-  <si>
-    <t>Capacity (MVA)</t>
-  </si>
-  <si>
     <t>Line id</t>
   </si>
   <si>
@@ -153,6 +147,12 @@
   </si>
   <si>
     <t>L34</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
 </sst>
 </file>
@@ -533,24 +533,24 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -559,15 +559,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -582,9 +582,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -599,9 +599,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -616,9 +616,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -633,9 +633,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -650,9 +650,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -667,9 +667,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -684,9 +684,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -701,9 +701,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -718,9 +718,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -735,9 +735,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -752,9 +752,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -769,9 +769,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -786,9 +786,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>9</v>
@@ -803,9 +803,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -820,9 +820,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -837,9 +837,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -854,9 +854,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>11</v>
@@ -871,9 +871,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -888,9 +888,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -905,9 +905,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>12</v>
@@ -922,9 +922,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -939,9 +939,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -956,9 +956,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>15</v>
@@ -973,9 +973,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>15</v>
@@ -990,9 +990,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -1007,9 +1007,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -1024,9 +1024,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -1041,9 +1041,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>17</v>
@@ -1058,9 +1058,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>17</v>
@@ -1075,9 +1075,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>18</v>
@@ -1092,9 +1092,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>19</v>
@@ -1109,9 +1109,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>20</v>
@@ -1126,9 +1126,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>21</v>
@@ -1150,9 +1150,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1300,26 +1303,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702244EF-09E4-4287-A309-D47118C6EA68}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E3775B-1FA2-47C8-9DD7-1455AFF9DA69}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1343,9 +1335,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E3775B-1FA2-47C8-9DD7-1455AFF9DA69}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702244EF-09E4-4287-A309-D47118C6EA68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Lines_data.xlsx
+++ b/Lines_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F23D5-8E0A-47CB-A0CE-7E854EDFA520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41A770F-8F6E-4ACB-9118-2B74C7CEB0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1.46E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E2">
         <v>175</v>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>0.2253</v>
+        <v>2E-3</v>
       </c>
       <c r="E3">
         <v>175</v>
@@ -610,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>9.0700000000000003E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E4">
         <v>350</v>
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.1356</v>
+        <v>2E-3</v>
       </c>
       <c r="E5">
         <v>175</v>
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>0.20499999999999999</v>
+        <v>2E-3</v>
       </c>
       <c r="E6">
         <v>175</v>
@@ -661,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>0.12709999999999999</v>
+        <v>2E-3</v>
       </c>
       <c r="E7">
         <v>175</v>
@@ -678,7 +678,7 @@
         <v>24</v>
       </c>
       <c r="D8">
-        <v>8.4000000000000005E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E8">
         <v>400</v>
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>0.111</v>
+        <v>2E-3</v>
       </c>
       <c r="E9">
         <v>175</v>
@@ -712,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>9.4E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E10">
         <v>350</v>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>6.4199999999999993E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E11">
         <v>175</v>
@@ -746,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>6.5199999999999994E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E12">
         <v>350</v>
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>0.1762</v>
+        <v>2E-3</v>
       </c>
       <c r="E13">
         <v>175</v>
@@ -780,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>0.1762</v>
+        <v>2E-3</v>
       </c>
       <c r="E14">
         <v>175</v>
@@ -797,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>8.4000000000000005E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E15">
         <v>400</v>
@@ -814,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>8.4000000000000005E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E16">
         <v>400</v>
@@ -831,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="D17">
-        <v>8.4000000000000005E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E17">
         <v>400</v>
@@ -848,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="D18">
-        <v>8.4000000000000005E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E18">
         <v>400</v>
@@ -865,7 +865,7 @@
         <v>13</v>
       </c>
       <c r="D19">
-        <v>4.8800000000000003E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -882,7 +882,7 @@
         <v>14</v>
       </c>
       <c r="D20">
-        <v>4.2599999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -899,7 +899,7 @@
         <v>13</v>
       </c>
       <c r="D21">
-        <v>4.8800000000000003E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -916,7 +916,7 @@
         <v>23</v>
       </c>
       <c r="D22">
-        <v>9.8500000000000004E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -933,7 +933,7 @@
         <v>23</v>
       </c>
       <c r="D23">
-        <v>8.8400000000000006E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -950,7 +950,7 @@
         <v>16</v>
       </c>
       <c r="D24">
-        <v>5.9400000000000001E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -967,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="D25">
-        <v>1.72E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -984,7 +984,7 @@
         <v>21</v>
       </c>
       <c r="D26">
-        <v>2.4899999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E26">
         <v>1000</v>
@@ -1001,7 +1001,7 @@
         <v>24</v>
       </c>
       <c r="D27">
-        <v>5.2900000000000003E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -1018,7 +1018,7 @@
         <v>17</v>
       </c>
       <c r="D28">
-        <v>2.63E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E28">
         <v>500</v>
@@ -1035,7 +1035,7 @@
         <v>19</v>
       </c>
       <c r="D29">
-        <v>2.3400000000000001E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -1052,7 +1052,7 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>1.43E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -1069,7 +1069,7 @@
         <v>22</v>
       </c>
       <c r="D31">
-        <v>0.1069</v>
+        <v>2E-3</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -1086,7 +1086,7 @@
         <v>21</v>
       </c>
       <c r="D32">
-        <v>1.32E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E32">
         <v>1000</v>
@@ -1103,7 +1103,7 @@
         <v>20</v>
       </c>
       <c r="D33">
-        <v>2.0299999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E33">
         <v>1000</v>
@@ -1120,7 +1120,7 @@
         <v>23</v>
       </c>
       <c r="D34">
-        <v>1.12E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E34">
         <v>1000</v>
@@ -1137,7 +1137,7 @@
         <v>22</v>
       </c>
       <c r="D35">
-        <v>6.9199999999999998E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E35">
         <v>500</v>
@@ -1150,9 +1150,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1300,26 +1303,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702244EF-09E4-4287-A309-D47118C6EA68}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E3775B-1FA2-47C8-9DD7-1455AFF9DA69}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1343,9 +1335,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E3775B-1FA2-47C8-9DD7-1455AFF9DA69}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{702244EF-09E4-4287-A309-D47118C6EA68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>